--- a/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
+++ b/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>970009</t>
+          <t>970010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>方正证券金立方一年持有期混合A</t>
+          <t>方正证券金立方一年持有期混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>34.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>79.98</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.20</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7570</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>970010</t>
+          <t>970009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>方正证券金立方一年持有期混合C</t>
+          <t>方正证券金立方一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>79.98</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.20</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5610</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>501047</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
+          <t>汇添富中证全指证券公司指数LOF A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>17.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3978</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501047</t>
+          <t>501048</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证全指证券公司指数LOF A</t>
+          <t>汇添富中证全指证券公司指数LOF C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.63</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.23</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501048</t>
+          <t>009515</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富中证全指证券公司指数LOF C</t>
+          <t>中欧真益稳健一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>20.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>26.05</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.42</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>26.05</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.42</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002802</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发东财大数据精选灵活配置混合</t>
+          <t>申万菱信量化小盘股票(LOF)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>33.72</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009515</t>
+          <t>002802</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧真益稳健一年持有期混合A</t>
+          <t>广发东财大数据精选灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23.06</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -754,15 +854,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>23.06</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>0.72</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320014</t>
+          <t>630001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安沪深300指数增强A</t>
+          <t>华商领先企业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3906</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010352</t>
+          <t>001418</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安沪深300指数增强C</t>
+          <t>泰达宏利创益灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2991</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>33.75</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.68</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -902,25 +1052,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001142</t>
+          <t>320014</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
+          <t>诺安沪深300指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>33.75</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001264</t>
+          <t>002273</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华恒利灵活配置混合A</t>
+          <t>泰达宏利创益灵活配置混合B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>74.03</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002327</t>
+          <t>001706</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华恒利灵活配置混合C</t>
+          <t>诺安积极回报灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>74.03</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001418</t>
+          <t>001142</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合A</t>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>35.27</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002273</t>
+          <t>001264</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合B</t>
+          <t>银华恒利灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>35.27</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>74.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001706</t>
+          <t>002327</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安积极回报灵活配置混合</t>
+          <t>银华恒利灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>74.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>630001</t>
+          <t>010352</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华商领先企业混合</t>
+          <t>诺安沪深300指数增强C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>80.38</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
+++ b/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3204</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
+++ b/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3592</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011353</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3089</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011354</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>58.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>58.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
+++ b/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2189,4 +2190,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
+++ b/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2198,7 +2199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2209,17 +2210,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2229,14 +2250,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.33</v>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>33.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2245,14 +2288,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.61</v>
+          <t>012667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融景泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2261,14 +2326,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.3</v>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2277,13 +2364,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012668</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融景泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
         <v>2.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
+++ b/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2635,7 +2636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2646,17 +2647,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2666,14 +2687,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2682,14 +2725,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.33</v>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2698,14 +2763,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.61</v>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2714,14 +2801,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.3</v>
       </c>
     </row>
     <row r="6">
@@ -2730,13 +2839,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013939</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>10</v>
       </c>
       <c r="D6" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
         <v>2.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
+++ b/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,437 +456,455 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>970010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>方正证券金立方一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.41</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.98</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7570</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>970009</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>方正证券金立方一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.50</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5610</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501047</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3978</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501048</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2279</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009515</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧真益稳健一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>23.06</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1471</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001141</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>26.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0842</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001142</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>26.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0842</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>163110</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0808</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002802</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发东财大数据精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>33.72</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009516</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧真益稳健一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>23.06</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
+      <c r="D7" t="n">
+        <v>2.38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013939</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -913,7 +931,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -943,32 +961,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>630001</t>
+          <t>010683</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商领先企业混合</t>
+          <t>中融景颐6个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.38</t>
+          <t>33.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3906</t>
+          <t>0.0879</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -981,36 +999,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001418</t>
+          <t>012667</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合A</t>
+          <t>中融景泓一年持有混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>35.27</t>
+          <t>24.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2991</t>
+          <t>0.0727</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1019,36 +1037,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001141</t>
+          <t>257040</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
+          <t>国联安红利混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33.75</t>
+          <t>83.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2219</t>
+          <t>0.0584</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1057,36 +1075,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>320014</t>
+          <t>010938</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安沪深300指数增强A</t>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>23.09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1184</t>
+          <t>0.0472</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1095,36 +1113,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002273</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合B</t>
+          <t>国泰上证综合ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>35.27</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1176</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1133,36 +1151,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001706</t>
+          <t>006123</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安积极回报灵活配置混合</t>
+          <t>中融高股息精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>93.39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1093</t>
+          <t>0.0292</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1171,36 +1189,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001142</t>
+          <t>010939</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33.75</t>
+          <t>23.09</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0265</t>
+          <t>0.0165</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1209,36 +1227,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001264</t>
+          <t>010684</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银华恒利灵活配置混合A</t>
+          <t>中融景颐6个月持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>74.03</t>
+          <t>33.70</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1247,36 +1265,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002327</t>
+          <t>012668</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华恒利灵活配置混合C</t>
+          <t>中融景泓一年持有混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>74.03</t>
+          <t>24.22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1285,244 +1303,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010352</t>
+          <t>006124</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺安沪深300指数增强C</t>
+          <t>中融高股息精选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>93.39</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001141</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>38.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3204</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001418</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>36.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1887</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002273</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>36.96</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0540</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001142</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>38.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0505</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2200,7 +2010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2221,7 +2031,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2251,36 +2061,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010683</t>
+          <t>001141</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中融景颐6个月持有期混合A</t>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>33.70</t>
+          <t>38.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0879</t>
+          <t>0.3204</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2289,36 +2099,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012667</t>
+          <t>001418</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融景泓一年持有混合A</t>
+          <t>泰达宏利创益灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24.22</t>
+          <t>36.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0727</t>
+          <t>0.1887</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2327,36 +2137,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>257040</t>
+          <t>002273</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安红利混合</t>
+          <t>泰达宏利创益灵活配置混合B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.20</t>
+          <t>36.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0584</t>
+          <t>0.0540</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2365,264 +2175,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010938</t>
+          <t>001142</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.09</t>
+          <t>38.52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0472</t>
+          <t>0.0505</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>510760</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰上证综合ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006123</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0292</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010939</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>23.09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010684</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中融景颐6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>33.70</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>012668</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中融景泓一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>24.22</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006124</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2636,7 +2218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2657,7 +2239,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2687,36 +2269,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012412</t>
+          <t>630001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇泉策略优选混合型证券投资基金</t>
+          <t>华商领先企业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.16</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.51</t>
+          <t>80.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5767</t>
+          <t>0.3906</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2725,36 +2307,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160516</t>
+          <t>001418</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时中证全指证券公司指数</t>
+          <t>泰达宏利创益灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>35.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1733</t>
+          <t>0.2991</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2763,36 +2345,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014825</t>
+          <t>001141</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇泉兴至未来一年持有混合A</t>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>37.93</t>
+          <t>33.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0550</t>
+          <t>0.2219</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2801,36 +2383,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>510200</t>
+          <t>320014</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安上证证券ETF</t>
+          <t>诺安沪深300指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.01</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.1184</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2839,36 +2421,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161816</t>
+          <t>002273</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华中证等权重90指数（LOF）</t>
+          <t>泰达宏利创益灵活配置混合B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>35.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.1176</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2877,36 +2459,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014826</t>
+          <t>001706</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇泉兴至未来一年持有混合C</t>
+          <t>诺安积极回报灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>37.93</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.1093</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2915,36 +2497,150 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013939</t>
+          <t>001142</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇泉策略优选混合C</t>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.51</t>
+          <t>33.75</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0265</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010352</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2958,128 +2654,432 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7570</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5610</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3978</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009515</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009516</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.38</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
+++ b/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.61</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.3</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>10</v>
       </c>
       <c r="D7" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
         <v>2.38</v>
       </c>
     </row>
@@ -583,6 +600,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3517</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015387</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015388</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014049</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013939</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014050</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -904,7 +1509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1340,7 +1945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2004,7 +2609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2212,7 +2817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2648,7 +3253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
+++ b/数据整理/stocks/A股/上证主板/601066-中信建投.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.64</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.61</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.3</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>10</v>
       </c>
       <c r="D8" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
         <v>2.38</v>
       </c>
     </row>
@@ -600,6 +617,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015387</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015388</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014049</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +1564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1509,7 +1886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1945,7 +2322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2609,7 +2986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2817,7 +3194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3253,7 +3630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
